--- a/data/schemeCategory.xlsx
+++ b/data/schemeCategory.xlsx
@@ -1,57 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AEFA77-C988-4C66-B752-B88A2AF4C7EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
-    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
-    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
-    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
-    <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
-    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
-    <sheet name="Sheet23" sheetId="23" r:id="rId23"/>
-    <sheet name="Sheet24" sheetId="24" r:id="rId24"/>
-    <sheet name="Sheet25" sheetId="25" r:id="rId25"/>
-    <sheet name="Sheet26" sheetId="26" r:id="rId26"/>
-    <sheet name="Sheet27" sheetId="27" r:id="rId27"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Sheet4" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="Sheet5" state="visible" r:id="rId8"/>
+    <sheet sheetId="6" name="Sheet6" state="visible" r:id="rId9"/>
+    <sheet sheetId="7" name="Sheet7" state="visible" r:id="rId10"/>
+    <sheet sheetId="8" name="Sheet8" state="visible" r:id="rId11"/>
+    <sheet sheetId="9" name="Sheet9" state="visible" r:id="rId12"/>
+    <sheet sheetId="10" name="Sheet10" state="visible" r:id="rId13"/>
+    <sheet sheetId="11" name="Sheet11" state="visible" r:id="rId14"/>
+    <sheet sheetId="12" name="Sheet12" state="visible" r:id="rId15"/>
+    <sheet sheetId="13" name="Sheet13" state="visible" r:id="rId16"/>
+    <sheet sheetId="14" name="Sheet14" state="visible" r:id="rId17"/>
+    <sheet sheetId="15" name="Sheet15" state="visible" r:id="rId18"/>
+    <sheet sheetId="16" name="Sheet16" state="visible" r:id="rId19"/>
+    <sheet sheetId="17" name="Sheet17" state="visible" r:id="rId20"/>
+    <sheet sheetId="18" name="Sheet18" state="visible" r:id="rId21"/>
+    <sheet sheetId="19" name="Sheet19" state="visible" r:id="rId22"/>
+    <sheet sheetId="20" name="Sheet20" state="visible" r:id="rId23"/>
+    <sheet sheetId="21" name="Sheet21" state="visible" r:id="rId24"/>
+    <sheet sheetId="22" name="Sheet22" state="visible" r:id="rId25"/>
+    <sheet sheetId="23" name="Sheet23" state="visible" r:id="rId26"/>
+    <sheet sheetId="24" name="Sheet24" state="visible" r:id="rId27"/>
+    <sheet sheetId="25" name="Sheet25" state="visible" r:id="rId28"/>
+    <sheet sheetId="26" name="Sheet26" state="visible" r:id="rId29"/>
+    <sheet sheetId="27" name="Sheet27" state="visible" r:id="rId30"/>
+    <sheet sheetId="28" name="Sheet28" state="visible" r:id="rId31"/>
+    <sheet sheetId="29" name="Sheet29" state="visible" r:id="rId32"/>
+    <sheet sheetId="30" name="Sheet30" state="visible" r:id="rId33"/>
+    <sheet sheetId="31" name="Sheet31" state="visible" r:id="rId34"/>
+    <sheet sheetId="32" name="Sheet32" state="visible" r:id="rId35"/>
+    <sheet sheetId="33" name="Sheet33" state="visible" r:id="rId36"/>
+    <sheet sheetId="34" name="Sheet34" state="visible" r:id="rId37"/>
+    <sheet sheetId="35" name="Sheet35" state="visible" r:id="rId38"/>
+    <sheet sheetId="36" name="Sheet36" state="visible" r:id="rId39"/>
+    <sheet sheetId="37" name="Sheet37" state="visible" r:id="rId40"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="56">
   <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
@@ -131,6 +130,12 @@
     <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
+    <t>["New Members","65","200,400","Ex Stakeholder &amp; SIPP Members","65","26,866","Income Drawdown Category","65","6"]</t>
+  </si>
+  <si>
+    <t>["New Members","65","202,933","Ex Stakeholder &amp; SIPP Members","65","26,849","Income Drawdown Category","65","6"]</t>
+  </si>
+  <si>
     <t>SAINSBURY'S SIPP</t>
   </si>
   <si>
@@ -158,7 +163,7 @@
     <t>SAINSBURY'S PENSION SCHEME AVC</t>
   </si>
   <si>
-    <t>["DB AVC Colleagues","65","905","ARGOS AVC COLLEAGUES","65","132"]</t>
+    <t>["DB AVC Colleagues","65","893","ARGOS AVC COLLEAGUES","65","130"]</t>
   </si>
   <si>
     <t>SERCO WORKSAVE PENSION PLAN</t>
@@ -201,33 +206,51 @@
   </si>
   <si>
     <t>ALLIANCE HEALTHCARE AND BOOTS RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
+  </si>
+  <si>
+    <t>["Scheme Category Description","Default Investment","Fund Percentage","FMC"]</t>
+  </si>
+  <si>
+    <t>["Sodexo Ltd - Monthly Paid","65","16,973","Sodexo Ltd - AE Weekly Paid","65","6,687","Sodexo Ltd - AE Monthly Paid","65","365","Sodexo Motivation Solutions UK Ltd","65","219","Sodexo Global Services Ltd","65","84","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","17","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0","TVF Four weekly Temporary","65","0"]</t>
+  </si>
+  <si>
+    <t>["Sodexo Ltd - Monthly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Ltd - Four Weekly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Ltd - AE Monthly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Ltd - AE Weekly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","TVF Weekly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","TVF Four weekly Temporary","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Global Services Ltd","L&amp;G PMC Multi-Asset 3","100","0.13%","Sports Travel &amp; Hospitality Group Ltd","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Motivation Solutions UK Ltd","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Travel","L&amp;G PMC Multi-Asset 3","100","0.13%"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFC586C0"/>
+      <family val="3"/>
+      <sz val="12"/>
+      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,8 +391,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -382,30 +408,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -417,7 +453,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -431,7 +467,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -445,7 +481,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -459,7 +495,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -473,7 +509,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -487,7 +523,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -501,7 +537,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -515,7 +551,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -529,7 +565,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -543,7 +579,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -557,7 +593,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -571,7 +607,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -585,7 +621,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -599,7 +635,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -613,7 +649,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -627,7 +663,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -641,7 +677,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -655,7 +691,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -669,7 +705,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -683,7 +719,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -697,7 +733,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -711,7 +747,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -725,7 +761,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -739,7 +775,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -753,7 +789,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -767,7 +803,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
       </font>
     </dxf>
     <dxf>
@@ -781,7 +817,14 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="9" tint="-0.249946592608417"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
   </dxfs>
@@ -1059,14 +1102,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
@@ -1074,2776 +1117,2975 @@
     <col min="4" max="4" width="19.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" ht="22.2" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="60.9" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="6" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="127.2" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="3" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="42.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="37.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="26.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="56.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="28.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="41.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="25.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="63.62890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="63.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="27.9453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.89453125" customWidth="1"/>
     <col min="2" max="3" width="27.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.89453125" customWidth="1"/>
     <col min="2" max="2" width="29.3671875" customWidth="1"/>
     <col min="3" max="3" width="70.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" ht="21" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="33.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+    <row r="6" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="19.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="29.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+    <row r="6" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="23.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="33.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="22.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.89453125" customWidth="1"/>
     <col min="2" max="2" width="52.3125" customWidth="1"/>
     <col min="3" max="3" width="40.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.89453125" customWidth="1"/>
     <col min="2" max="3" width="52.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="15" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="32.3125" customWidth="1"/>
     <col min="3" max="3" width="39.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+    <row r="1" ht="16.8" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="53.5234375" customWidth="1"/>
+    <col min="3" max="3" width="56.5234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" ht="122.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="str">
+        <f>IF(B4=C4,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="37.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="14.26171875" customWidth="1"/>
     <col min="3" max="3" width="22.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="35.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="32.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="33.9453125" customWidth="1"/>
+    <col min="2" max="2" width="33.9453125" customWidth="1"/>
+    <col min="3" max="3" width="51.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="38.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="95.1" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
-        <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="14.7890625" customWidth="1"/>
     <col min="4" max="4" width="5.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="11" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/data/schemeCategory.xlsx
+++ b/data/schemeCategory.xlsx
@@ -1,56 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B075C4A4-B19D-469F-918F-ED5377F108F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="24" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Sheet4" state="visible" r:id="rId7"/>
-    <sheet sheetId="5" name="Sheet5" state="visible" r:id="rId8"/>
-    <sheet sheetId="6" name="Sheet6" state="visible" r:id="rId9"/>
-    <sheet sheetId="7" name="Sheet7" state="visible" r:id="rId10"/>
-    <sheet sheetId="8" name="Sheet8" state="visible" r:id="rId11"/>
-    <sheet sheetId="9" name="Sheet9" state="visible" r:id="rId12"/>
-    <sheet sheetId="10" name="Sheet10" state="visible" r:id="rId13"/>
-    <sheet sheetId="11" name="Sheet11" state="visible" r:id="rId14"/>
-    <sheet sheetId="12" name="Sheet12" state="visible" r:id="rId15"/>
-    <sheet sheetId="13" name="Sheet13" state="visible" r:id="rId16"/>
-    <sheet sheetId="14" name="Sheet14" state="visible" r:id="rId17"/>
-    <sheet sheetId="15" name="Sheet15" state="visible" r:id="rId18"/>
-    <sheet sheetId="16" name="Sheet16" state="visible" r:id="rId19"/>
-    <sheet sheetId="17" name="Sheet17" state="visible" r:id="rId20"/>
-    <sheet sheetId="18" name="Sheet18" state="visible" r:id="rId21"/>
-    <sheet sheetId="19" name="Sheet19" state="visible" r:id="rId22"/>
-    <sheet sheetId="20" name="Sheet20" state="visible" r:id="rId23"/>
-    <sheet sheetId="21" name="Sheet21" state="visible" r:id="rId24"/>
-    <sheet sheetId="22" name="Sheet22" state="visible" r:id="rId25"/>
-    <sheet sheetId="23" name="Sheet23" state="visible" r:id="rId26"/>
-    <sheet sheetId="24" name="Sheet24" state="visible" r:id="rId27"/>
-    <sheet sheetId="25" name="Sheet25" state="visible" r:id="rId28"/>
-    <sheet sheetId="26" name="Sheet26" state="visible" r:id="rId29"/>
-    <sheet sheetId="27" name="Sheet27" state="visible" r:id="rId30"/>
-    <sheet sheetId="28" name="Sheet28" state="visible" r:id="rId31"/>
-    <sheet sheetId="29" name="Sheet29" state="visible" r:id="rId32"/>
-    <sheet sheetId="30" name="Sheet30" state="visible" r:id="rId33"/>
-    <sheet sheetId="31" name="Sheet31" state="visible" r:id="rId34"/>
-    <sheet sheetId="32" name="Sheet32" state="visible" r:id="rId35"/>
-    <sheet sheetId="33" name="Sheet33" state="visible" r:id="rId36"/>
-    <sheet sheetId="34" name="Sheet34" state="visible" r:id="rId37"/>
-    <sheet sheetId="35" name="Sheet35" state="visible" r:id="rId38"/>
-    <sheet sheetId="36" name="Sheet36" state="visible" r:id="rId39"/>
-    <sheet sheetId="37" name="Sheet37" state="visible" r:id="rId40"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId23"/>
+    <sheet name="Sheet24" sheetId="24" r:id="rId24"/>
+    <sheet name="Sheet25" sheetId="25" r:id="rId25"/>
+    <sheet name="Sheet26" sheetId="26" r:id="rId26"/>
+    <sheet name="Sheet27" sheetId="27" r:id="rId27"/>
+    <sheet name="Sheet28" sheetId="28" r:id="rId28"/>
+    <sheet name="Sheet29" sheetId="29" r:id="rId29"/>
+    <sheet name="Sheet30" sheetId="30" r:id="rId30"/>
+    <sheet name="Sheet31" sheetId="31" r:id="rId31"/>
+    <sheet name="Sheet32" sheetId="32" r:id="rId32"/>
+    <sheet name="Sheet33" sheetId="33" r:id="rId33"/>
+    <sheet name="Sheet34" sheetId="34" r:id="rId34"/>
+    <sheet name="Sheet35" sheetId="35" r:id="rId35"/>
+    <sheet name="Sheet36" sheetId="36" r:id="rId36"/>
+    <sheet name="Sheet37" sheetId="37" r:id="rId37"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="55">
   <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
@@ -133,7 +145,7 @@
     <t>["New Members","65","200,400","Ex Stakeholder &amp; SIPP Members","65","26,866","Income Drawdown Category","65","6"]</t>
   </si>
   <si>
-    <t>["New Members","65","202,933","Ex Stakeholder &amp; SIPP Members","65","26,849","Income Drawdown Category","65","6"]</t>
+    <t>["New Members","65","202,789","Ex Stakeholder &amp; SIPP Members","65","26,820","Income Drawdown Category","65","6"]</t>
   </si>
   <si>
     <t>SAINSBURY'S SIPP</t>
@@ -211,46 +223,50 @@
     <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
   </si>
   <si>
-    <t>["Scheme Category Description","Default Investment","Fund Percentage","FMC"]</t>
-  </si>
-  <si>
-    <t>["Sodexo Ltd - Monthly Paid","65","16,973","Sodexo Ltd - AE Weekly Paid","65","6,687","Sodexo Ltd - AE Monthly Paid","65","365","Sodexo Motivation Solutions UK Ltd","65","219","Sodexo Global Services Ltd","65","84","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","17","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0","TVF Four weekly Temporary","65","0"]</t>
-  </si>
-  <si>
-    <t>["Sodexo Ltd - Monthly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Ltd - Four Weekly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Ltd - AE Monthly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Ltd - AE Weekly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","TVF Weekly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","TVF Four weekly Temporary","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Global Services Ltd","L&amp;G PMC Multi-Asset 3","100","0.13%","Sports Travel &amp; Hospitality Group Ltd","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Motivation Solutions UK Ltd","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Travel","L&amp;G PMC Multi-Asset 3","100","0.13%"]</t>
+    <t>["Sodexo Ltd - Monthly Paid","65","16,968","Sodexo Ltd - AE Weekly Paid","65","6,670","Sodexo Ltd - AE Monthly Paid","65","364","Sodexo Motivation Solutions UK Ltd","65","218","Sodexo Global Services Ltd","65","84","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","17","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0","TVF Four weekly Temporary","65","0"]</t>
+  </si>
+  <si>
+    <t>["Sodexo Ltd - Monthly Paid","65","16,981","Sodexo Ltd - AE Weekly Paid","65","6,680","Sodexo Ltd - AE Monthly Paid","65","365","Sodexo Motivation Solutions UK Ltd","65","219","Sodexo Global Services Ltd","65","84","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","17","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0","TVF Four weekly Temporary","65","0"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FFC586C0"/>
-      <family val="3"/>
-      <sz val="12"/>
-      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,11 +407,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -408,27 +421,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,13 +458,6 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
         <color rgb="FFC00000"/>
       </font>
     </dxf>
@@ -453,7 +465,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -467,7 +479,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -481,7 +493,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -495,7 +507,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -509,7 +521,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -523,7 +535,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -537,7 +549,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -551,7 +563,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -565,7 +577,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -579,7 +591,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -593,7 +605,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -607,7 +619,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -621,7 +633,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -635,7 +647,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -649,7 +661,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -663,7 +675,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -677,7 +689,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -691,7 +703,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -705,7 +717,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -719,7 +731,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -733,7 +745,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -747,7 +759,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -761,7 +773,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -775,7 +787,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -789,7 +801,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -803,7 +815,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -817,7 +829,7 @@
       <font>
         <b/>
         <i/>
-        <color theme="9" tint="-0.249946592608417"/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -825,6 +837,13 @@
         <b/>
         <i/>
         <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
   </dxfs>
@@ -1102,14 +1121,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
@@ -1117,2274 +1136,2274 @@
     <col min="4" max="4" width="19.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.2" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="60.9" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="60.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="str">
+      <c r="D3" s="5" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" ht="127.2" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="2" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="42.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="37.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="26.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="56.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="28.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="41.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="25.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="63.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="27.9453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="31.89453125" customWidth="1"/>
     <col min="2" max="3" width="27.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="11" t="str">
+      <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="31.89453125" customWidth="1"/>
     <col min="2" max="2" width="29.3671875" customWidth="1"/>
     <col min="3" max="3" width="70.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="33.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="19.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="29.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="23.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="33.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="22.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="31.89453125" customWidth="1"/>
     <col min="2" max="2" width="52.3125" customWidth="1"/>
     <col min="3" max="3" width="40.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="31.89453125" customWidth="1"/>
     <col min="2" max="3" width="52.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="20" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="32.3125" customWidth="1"/>
     <col min="3" max="3" width="39.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="53.5234375" customWidth="1"/>
     <col min="3" max="3" width="56.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>52</v>
       </c>
@@ -3392,45 +3411,45 @@
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="str">
+        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="122.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="10" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" ht="122.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
   </sheetData>
@@ -3438,654 +3457,654 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="37.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="14.26171875" customWidth="1"/>
     <col min="3" max="3" width="22.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="35.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="32.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="33.9453125" customWidth="1"/>
+    <col min="2" max="2" width="51.47265625" customWidth="1"/>
     <col min="3" max="3" width="51.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="38.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" ht="95.1" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="3" width="14.7890625" customWidth="1"/>
     <col min="4" max="4" width="5.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customHeight="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11" t="str">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11" t="str">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11" t="str">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/data/schemeCategory.xlsx
+++ b/data/schemeCategory.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B075C4A4-B19D-469F-918F-ED5377F108F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C710DB-76F6-4368-AA93-89D2FB1965B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="24" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="67">
   <si>
     <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
   </si>
@@ -142,10 +142,19 @@
     <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
-    <t>["New Members","65","200,400","Ex Stakeholder &amp; SIPP Members","65","26,866","Income Drawdown Category","65","6"]</t>
-  </si>
-  <si>
-    <t>["New Members","65","202,789","Ex Stakeholder &amp; SIPP Members","65","26,820","Income Drawdown Category","65","6"]</t>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>["New Members","65","204,554","Ex Stakeholder &amp; SIPP Members","65","26,641","Income Drawdown Category","65","6"]</t>
+  </si>
+  <si>
+    <t>New Members</t>
+  </si>
+  <si>
+    <t>Ex stakeholders &amp; SIPP Members</t>
+  </si>
+  <si>
+    <t>Drawdown category</t>
   </si>
   <si>
     <t>SAINSBURY'S SIPP</t>
@@ -223,17 +232,44 @@
     <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
   </si>
   <si>
-    <t>["Sodexo Ltd - Monthly Paid","65","16,968","Sodexo Ltd - AE Weekly Paid","65","6,670","Sodexo Ltd - AE Monthly Paid","65","364","Sodexo Motivation Solutions UK Ltd","65","218","Sodexo Global Services Ltd","65","84","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","17","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0","TVF Four weekly Temporary","65","0"]</t>
-  </si>
-  <si>
-    <t>["Sodexo Ltd - Monthly Paid","65","16,981","Sodexo Ltd - AE Weekly Paid","65","6,680","Sodexo Ltd - AE Monthly Paid","65","365","Sodexo Motivation Solutions UK Ltd","65","219","Sodexo Global Services Ltd","65","84","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","17","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0","TVF Four weekly Temporary","65","0"]</t>
+    <t>["Sodexo Ltd - Monthly Paid","65","17,244","Sodexo Ltd - AE Weekly Paid","65","5,527","Sodexo Ltd - AE Monthly Paid","65","358","Sodexo Motivation Solutions UK Ltd","65","221","Sodexo Global Services Ltd","65","83","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","20","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0"]</t>
+  </si>
+  <si>
+    <t>Sodexo Ltd Monthly Paid - Count Of Policies</t>
+  </si>
+  <si>
+    <t>Sodexo Ltd AE Weekly Paid - Count Of Policies</t>
+  </si>
+  <si>
+    <t>Sodexo Ltd AE Monthly Paid - Count Of Policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodexo Motivation Solutions UK Ltd               </t>
+  </si>
+  <si>
+    <t>Sodexo Global Services Ltd</t>
+  </si>
+  <si>
+    <t>TVF Weekly Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports Travel &amp; Hospitality Group Ltd                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodexo Ltd - Four Weekly Paid                               </t>
+  </si>
+  <si>
+    <t>Sodexo Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TVF Four weekly Temporary                                   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,13 +296,6 @@
       <color rgb="FFC586C0"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -407,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -421,9 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -431,6 +458,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,14 +478,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1128,23 +1185,23 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="52.05078125" customWidth="1"/>
-    <col min="4" max="4" width="19.3671875" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1156,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1228,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="127.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1186,24 +1243,24 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -1213,12 +1270,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1235,20 +1292,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="42.5234375" customWidth="1"/>
+    <col min="2" max="3" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1260,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1271,7 +1328,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +1339,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1291,7 +1348,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1300,12 +1357,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -1315,12 +1372,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1337,20 +1394,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="37.83984375" customWidth="1"/>
+    <col min="2" max="3" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1362,7 +1419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1373,7 +1430,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1441,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1393,7 +1450,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1402,12 +1459,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -1417,12 +1474,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1439,20 +1496,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="26.26171875" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1464,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1475,7 +1532,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1486,7 +1543,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1495,7 +1552,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1504,12 +1561,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -1519,12 +1576,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1541,20 +1598,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="56.47265625" customWidth="1"/>
+    <col min="2" max="3" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1566,7 +1623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1577,7 +1634,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1588,7 +1645,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1597,7 +1654,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1606,12 +1663,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -1621,12 +1678,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1643,20 +1700,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="28.5234375" customWidth="1"/>
+    <col min="2" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1668,7 +1725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1679,7 +1736,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +1747,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1699,7 +1756,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1708,12 +1765,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -1723,12 +1780,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1745,20 +1802,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="41.578125" customWidth="1"/>
+    <col min="2" max="3" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1770,7 +1827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1838,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1792,7 +1849,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1801,7 +1858,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1810,12 +1867,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -1825,12 +1882,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1847,20 +1904,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="25.05078125" customWidth="1"/>
+    <col min="2" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1872,7 +1929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1883,7 +1940,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1894,7 +1951,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1903,7 +1960,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1912,12 +1969,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -1927,12 +1984,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1949,20 +2006,20 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="63.62890625" customWidth="1"/>
+    <col min="2" max="3" width="63.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1974,7 +2031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1987,37 +2044,37 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -2027,12 +2084,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2049,20 +2106,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="27.9453125" customWidth="1"/>
+    <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2074,7 +2131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2085,7 +2142,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2096,7 +2153,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2105,7 +2162,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2114,12 +2171,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -2129,12 +2186,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2151,20 +2208,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="3" width="27.5234375" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2176,55 +2233,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -2234,12 +2291,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2256,22 +2313,22 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="29.3671875" customWidth="1"/>
-    <col min="3" max="3" width="70.15625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2283,7 +2340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2296,7 +2353,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2309,25 +2366,25 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2338,12 +2395,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2360,20 +2417,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="33.20703125" customWidth="1"/>
+    <col min="2" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2385,7 +2442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2396,7 +2453,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2407,7 +2464,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2416,7 +2473,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2425,12 +2482,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -2440,12 +2497,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2462,20 +2519,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="19.05078125" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2487,7 +2544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2498,7 +2555,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2509,7 +2566,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2518,7 +2575,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2527,17 +2584,17 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" s="8"/>
     </row>
@@ -2546,12 +2603,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2568,20 +2625,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="29.47265625" customWidth="1"/>
+    <col min="2" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2593,7 +2650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2604,7 +2661,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2615,7 +2672,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2624,7 +2681,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2633,12 +2690,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -2648,12 +2705,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2670,20 +2727,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="23.15625" customWidth="1"/>
+    <col min="2" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2695,7 +2752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2706,7 +2763,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2717,7 +2774,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="13"/>
@@ -2726,7 +2783,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="13"/>
@@ -2735,12 +2792,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="13"/>
       <c r="D8" s="8"/>
@@ -2750,12 +2807,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2772,20 +2829,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="33.3125" customWidth="1"/>
+    <col min="2" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2797,7 +2854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2808,7 +2865,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2819,7 +2876,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2828,7 +2885,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2837,12 +2894,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -2852,12 +2909,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2874,20 +2931,20 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="22.1015625" customWidth="1"/>
+    <col min="2" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2899,7 +2956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2910,7 +2967,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2921,7 +2978,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2930,7 +2987,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2939,12 +2996,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -2954,12 +3011,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2976,21 +3033,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="2" width="52.3125" customWidth="1"/>
-    <col min="3" max="3" width="40.41796875" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3002,7 +3059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3013,7 +3070,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3024,7 +3081,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3033,7 +3090,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3042,12 +3099,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -3057,12 +3114,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3079,20 +3136,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.89453125" customWidth="1"/>
-    <col min="2" max="3" width="52.3125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="3" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="16" t="s">
         <v>1</v>
@@ -3104,7 +3161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3115,7 +3172,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3126,7 +3183,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3135,7 +3192,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3144,12 +3201,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -3159,12 +3216,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3179,7 +3236,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -3192,7 +3249,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -3207,21 +3264,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="32.3125" customWidth="1"/>
-    <col min="3" max="3" width="39.41796875" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3233,7 +3290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3246,7 +3303,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3259,7 +3316,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -3270,7 +3327,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -3281,12 +3338,12 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -3296,12 +3353,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3316,7 +3373,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -3329,7 +3386,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -3342,7 +3399,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -3355,7 +3412,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -3368,7 +3425,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -3381,7 +3438,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -3390,28 +3447,31 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="53.5234375" customWidth="1"/>
-    <col min="3" max="3" width="56.5234375" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3419,49 +3479,224 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="122.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>IF(B2=B3,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="10" t="str">
-        <f>IF(B4=C4,"PASS","FAIL")</f>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>IF(B3=B4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="19">
+        <v>17244</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" ref="E5:E14" si="0">IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="19">
+        <v>5527</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="18">
+        <v>358</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="18">
+        <v>221</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="18">
+        <v>83</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="18">
+        <v>21</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="18">
+        <v>20</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="18">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="18">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D4">
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E14">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D4">
+  <conditionalFormatting sqref="E5:E14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
@@ -3477,7 +3712,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -3492,20 +3727,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="37.3125" customWidth="1"/>
+    <col min="2" max="3" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3517,7 +3752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3528,7 +3763,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3539,7 +3774,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3548,7 +3783,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3557,12 +3792,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -3572,12 +3807,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3594,21 +3829,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="14.26171875" customWidth="1"/>
-    <col min="3" max="3" width="22.5234375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3620,7 +3855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3631,7 +3866,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3642,7 +3877,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3651,7 +3886,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3660,12 +3895,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -3675,12 +3910,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3697,20 +3932,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="35.62890625" customWidth="1"/>
+    <col min="2" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3722,7 +3957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3735,7 +3970,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3748,7 +3983,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -3759,7 +3994,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -3770,12 +4005,12 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -3785,12 +4020,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3807,20 +4042,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="32.5234375" customWidth="1"/>
+    <col min="2" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3832,7 +4067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3843,7 +4078,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3854,7 +4089,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3863,7 +4098,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3872,12 +4107,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -3887,12 +4122,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3903,27 +4138,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="51.47265625" customWidth="1"/>
-    <col min="3" max="3" width="51.1015625" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -3931,73 +4166,112 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>IF(B2=B3,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="10" t="str">
-        <f>IF(B4=C4,"PASS","FAIL")</f>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>IF(B3=B4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="19">
+        <v>204554</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" ref="E5:E7" si="0">IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="19">
+        <v>26641</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="18">
+        <v>6</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E7">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E7">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4014,21 +4288,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="3" width="14.7890625" customWidth="1"/>
-    <col min="4" max="4" width="5.7890625" customWidth="1"/>
+    <col min="2" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -4040,7 +4314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4051,7 +4325,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -4062,7 +4336,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4071,7 +4345,7 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4080,12 +4354,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="8"/>
@@ -4095,12 +4369,12 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/schemeCategory.xlsx
+++ b/data/schemeCategory.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C710DB-76F6-4368-AA93-89D2FB1965B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3035693C-2C04-403A-A549-4025A51B9003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet51" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
@@ -43,7 +43,7 @@
     <sheet name="Sheet33" sheetId="33" r:id="rId33"/>
     <sheet name="Sheet34" sheetId="34" r:id="rId34"/>
     <sheet name="Sheet35" sheetId="35" r:id="rId35"/>
-    <sheet name="Sheet36" sheetId="36" r:id="rId36"/>
+    <sheet name="Sheet50" sheetId="36" r:id="rId36"/>
     <sheet name="Sheet37" sheetId="37" r:id="rId37"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -62,9 +62,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="67">
-  <si>
-    <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="64">
+  <si>
+    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
   </si>
   <si>
     <t>Master Data</t>
@@ -73,6 +73,9 @@
     <t>Actual Data</t>
   </si>
   <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
     <t>Result</t>
   </si>
   <si>
@@ -85,19 +88,52 @@
     <t>Category selected retirement age data</t>
   </si>
   <si>
-    <t>["Main Plan Salaried","65","845","Main Plan Salaried DB----DC","65","191","Main Plan Deferred","65","81","DB/DC Deferred Members Main Plan","65","70","Main Weekly Paid DB/DC","65","69","Main Weekly Paid","65","57","DB AVC Deferred Member","65","5","DB AVC Member","65","3"]</t>
-  </si>
-  <si>
-    <t>["Main Plan Salaried","65","845","Main Plan Salaried DB/DC","65","191","Main Plan Deferred","65","81","DB/DC Deferred Members Main Plan","65","70","Main Weekly Paid DB/DC","65","69","Main Weekly Paid","65","57","DB AVC Deferred Member","65","5","DB AVC Member","65","3"]</t>
-  </si>
-  <si>
-    <t>YOUR M &amp; S PENSION SAVING PLAN</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>64%</t>
+    <t>["Sodexo Ltd - Monthly Paid","65","17,229","Sodexo Ltd - AE Weekly Paid","65","4,910","Sodexo Ltd - AE Monthly Paid","65","358","Sodexo Motivation Solutions UK Ltd","65","221","Sodexo Global Services Ltd","65","83","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","20","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0"]</t>
+  </si>
+  <si>
+    <t>Sodexo Ltd Monthly Paid - Count Of Policies</t>
+  </si>
+  <si>
+    <t>Sodexo Ltd AE Weekly Paid - Count Of Policies</t>
+  </si>
+  <si>
+    <t>Sodexo Ltd AE Monthly Paid - Count Of Policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodexo Motivation Solutions UK Ltd               </t>
+  </si>
+  <si>
+    <t>Sodexo Global Services Ltd</t>
+  </si>
+  <si>
+    <t>TVF Weekly Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports Travel &amp; Hospitality Group Ltd                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodexo Ltd - Four Weekly Paid                               </t>
+  </si>
+  <si>
+    <t>Sodexo Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TVF Four weekly Temporary                                   </t>
+  </si>
+  <si>
+    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>["New Members","65","205,206","Ex Stakeholder &amp; SIPP Members","65","26,583","Income Drawdown Category","65","6"]</t>
+  </si>
+  <si>
+    <t>New Members</t>
+  </si>
+  <si>
+    <t>Ex stakeholders &amp; SIPP Members</t>
+  </si>
+  <si>
+    <t>Drawdown category</t>
   </si>
   <si>
     <t>THE TESCO RETIREMENT SAVINGS PLAN</t>
@@ -139,22 +175,7 @@
     <t>SIEMENS HEALTHINEERS PENSION PLAN</t>
   </si>
   <si>
-    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
-  </si>
-  <si>
-    <t>Tolerance</t>
-  </si>
-  <si>
-    <t>["New Members","65","204,554","Ex Stakeholder &amp; SIPP Members","65","26,641","Income Drawdown Category","65","6"]</t>
-  </si>
-  <si>
-    <t>New Members</t>
-  </si>
-  <si>
-    <t>Ex stakeholders &amp; SIPP Members</t>
-  </si>
-  <si>
-    <t>Drawdown category</t>
+    <t>["New Members","65","205,341","Ex Stakeholder &amp; SIPP Members","65","26,613","Income Drawdown Category","65","6"]</t>
   </si>
   <si>
     <t>SAINSBURY'S SIPP</t>
@@ -229,40 +250,10 @@
     <t>ALLIANCE HEALTHCARE AND BOOTS RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
-    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
-  </si>
-  <si>
-    <t>["Sodexo Ltd - Monthly Paid","65","17,244","Sodexo Ltd - AE Weekly Paid","65","5,527","Sodexo Ltd - AE Monthly Paid","65","358","Sodexo Motivation Solutions UK Ltd","65","221","Sodexo Global Services Ltd","65","83","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","20","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0"]</t>
-  </si>
-  <si>
-    <t>Sodexo Ltd Monthly Paid - Count Of Policies</t>
-  </si>
-  <si>
-    <t>Sodexo Ltd AE Weekly Paid - Count Of Policies</t>
-  </si>
-  <si>
-    <t>Sodexo Ltd AE Monthly Paid - Count Of Policies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sodexo Motivation Solutions UK Ltd               </t>
-  </si>
-  <si>
-    <t>Sodexo Global Services Ltd</t>
-  </si>
-  <si>
-    <t>TVF Weekly Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sports Travel &amp; Hospitality Group Ltd                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sodexo Ltd - Four Weekly Paid                               </t>
-  </si>
-  <si>
-    <t>Sodexo Travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TVF Four weekly Temporary                                   </t>
+    <t>["Sodexo Ltd - Monthly Paid","65","17,230","Sodexo Ltd - AE Weekly Paid","65","4,858","Sodexo Ltd - AE Monthly Paid","65","359","Sodexo Motivation Solutions UK Ltd","65","221","Sodexo Global Services Ltd","65","83","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","20","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0"]</t>
+  </si>
+  <si>
+    <t>["Sodexo Ltd - Monthly Paid","65","17,095","Sodexo Ltd - AE Weekly Paid","65","5,180","Sodexo Ltd - AE Monthly Paid","65","348","Sodexo Motivation Solutions UK Ltd","65","221","Sodexo Global Services Ltd","65","84","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","20","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0"]</t>
   </si>
 </sst>
 </file>
@@ -276,6 +267,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -291,12 +288,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC586C0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -306,21 +297,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -339,12 +321,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -356,7 +334,9 @@
       <right style="thin">
         <color theme="4"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -371,17 +351,6 @@
       <bottom style="thin">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -436,53 +405,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1179,103 +1173,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="127.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>IF(B2=B3,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f>IF(B4=C4,"PASS","FAIL")</f>
+        <v>63</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>IF(B3=B4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
-    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>17229</v>
+      </c>
+      <c r="C5" s="5">
+        <v>17095</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f t="shared" ref="E5:E14" si="0">IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4910</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5180</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>358</v>
+      </c>
+      <c r="C7" s="21">
+        <v>348</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>221</v>
+      </c>
+      <c r="C8" s="21">
+        <v>221</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>83</v>
+      </c>
+      <c r="C9" s="21">
+        <v>84</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>21</v>
+      </c>
+      <c r="C10" s="21">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" s="21">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="21">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E14">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E14">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1299,73 +1469,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1401,73 +1571,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1503,73 +1673,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1605,73 +1775,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1707,73 +1877,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1809,73 +1979,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1911,73 +2081,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2013,31 +2183,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -2045,12 +2215,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -2058,26 +2228,26 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2113,73 +2283,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2215,31 +2385,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D3" s="10" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -2247,12 +2417,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -2260,10 +2430,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -2271,20 +2441,20 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2307,99 +2477,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
+    </row>
+    <row r="3" spans="1:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>IF(B2=B3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>IF(B3=B4,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>205341</v>
+      </c>
+      <c r="C5" s="5">
+        <v>205082</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f t="shared" ref="E5:E7" si="0">IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5">
+        <v>26613</v>
+      </c>
+      <c r="C6" s="5">
+        <v>26543</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="str">
-        <f>IF(B4=C4,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="C7" s="21">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D8">
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E7">
     <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
+  <conditionalFormatting sqref="E5:E7">
     <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
@@ -2424,73 +2640,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2526,77 +2742,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2632,73 +2848,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2734,29 +2950,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="13"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -2764,10 +2980,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="13"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -2775,8 +2991,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="13"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -2784,8 +3000,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="13"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -2798,9 +3014,9 @@
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2836,73 +3052,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2938,73 +3154,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3041,73 +3257,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3143,14 +3359,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
@@ -3158,58 +3374,58 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3272,31 +3488,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -3304,12 +3520,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -3317,10 +3533,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -3328,10 +3544,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3339,14 +3555,14 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3449,9 +3665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3462,216 +3676,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="17">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <f>IF(B2=B3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="17">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <f>IF(B3=B4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="19">
-        <v>17244</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="11">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>17229</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6">
         <v>0.05</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E5" s="7" t="str">
         <f t="shared" ref="E5:E14" si="0">IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="19">
-        <v>5527</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="11">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4910</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6">
         <v>0.05</v>
       </c>
-      <c r="E6" s="5" t="str">
+      <c r="E6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>358</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <v>0.05</v>
       </c>
-      <c r="E7" s="5" t="str">
+      <c r="E7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="18">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
         <v>221</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="11">
+      <c r="D8" s="6">
         <v>0.05</v>
       </c>
-      <c r="E8" s="5" t="str">
+      <c r="E8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="18">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
         <v>83</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="11">
+      <c r="D9" s="6">
         <v>0.05</v>
       </c>
-      <c r="E9" s="5" t="str">
+      <c r="E9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="18">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
         <v>21</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="11">
+      <c r="D10" s="6">
         <v>0.05</v>
       </c>
-      <c r="E10" s="5" t="str">
+      <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
         <v>20</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="11">
+      <c r="D11" s="6">
         <v>0.05</v>
       </c>
-      <c r="E11" s="5" t="str">
+      <c r="E11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="11">
+      <c r="D12" s="6">
         <v>0.05</v>
       </c>
-      <c r="E12" s="5" t="str">
+      <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="11">
+      <c r="D13" s="6">
         <v>0.05</v>
       </c>
-      <c r="E13" s="5" t="str">
+      <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="18">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <v>0.05</v>
       </c>
-      <c r="E14" s="5" t="str">
+      <c r="E14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -3734,73 +3945,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3837,73 +4048,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3939,31 +4150,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
@@ -3971,12 +4182,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
@@ -3984,10 +4195,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
@@ -3995,10 +4206,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -4006,14 +4217,14 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4049,73 +4260,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4140,9 +4351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4152,101 +4361,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="11">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <f>IF(B2=B3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="11">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <f>IF(B3=B4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="19">
-        <v>204554</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="11">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>205341</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6">
         <v>0.05</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E5" s="7" t="str">
         <f t="shared" ref="E5:E7" si="0">IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="19">
-        <v>26641</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="11">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5">
+        <v>26613</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6">
         <v>0.05</v>
       </c>
-      <c r="E6" s="5" t="str">
+      <c r="E6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <v>0.05</v>
       </c>
-      <c r="E7" s="5" t="str">
+      <c r="E7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
@@ -4296,73 +4510,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="9" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/schemeCategory.xlsx
+++ b/data/schemeCategory.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C710DB-76F6-4368-AA93-89D2FB1965B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E2815B-77B6-4302-B9BD-3E12144B39A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet51" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
@@ -43,7 +43,7 @@
     <sheet name="Sheet33" sheetId="33" r:id="rId33"/>
     <sheet name="Sheet34" sheetId="34" r:id="rId34"/>
     <sheet name="Sheet35" sheetId="35" r:id="rId35"/>
-    <sheet name="Sheet36" sheetId="36" r:id="rId36"/>
+    <sheet name="Sheet50" sheetId="36" r:id="rId36"/>
     <sheet name="Sheet37" sheetId="37" r:id="rId37"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -62,9 +62,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="67">
-  <si>
-    <t>MITCHELLS &amp; BUTLERS PENSION PLAN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="86">
+  <si>
+    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
+  </si>
+  <si>
+    <t>MySI Name/Title</t>
   </si>
   <si>
     <t>Master Data</t>
@@ -73,88 +76,169 @@
     <t>Actual Data</t>
   </si>
   <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
     <t>Result</t>
   </si>
   <si>
+    <t>Table - Scheme Category with Target Retirement Age</t>
+  </si>
+  <si>
+    <t>["Sodexo Ltd - Monthly Paid","65","17,494","Sodexo Ltd - AE Weekly Paid","65","4,005","Sodexo Ltd - AE Monthly Paid","65","342","Sodexo Motivation Solutions UK Ltd","65","216","Sodexo Global Services Ltd","65","82","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","18","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0"]</t>
+  </si>
+  <si>
+    <t>Table - AMC Bands by Scheme Category</t>
+  </si>
+  <si>
+    <t>["GF61865001","Sodexo Global Services Ltd","Less than: 50000.0 - 0.19","GF61865001","Sodexo Global Services Ltd","Over: 50000.0 - 0.19","GF61865001","Sodexo Ltd - AE Monthly Paid","Less than: 50000.0 - 0.19","GF61865001","Sodexo Ltd - AE Monthly Paid","Over: 50000.0 - 0.19","GF61865001","Sodexo Ltd - AE Weekly Paid","Less than: 50000.0 - 0.19","GF61865001","Sodexo Ltd - AE Weekly Paid","Over: 50000.0 - 0.19","GF61865001","Sodexo Ltd - Four Weekly Paid","Less than: 50000.0 - 0.19","GF61865001","Sodexo Ltd - Four Weekly Paid","Over: 50000.0 - 0.19","GF61865001","Sodexo Ltd - Monthly Paid","Less than: 50000.0 - 0.19","GF61865001","Sodexo Ltd - Monthly Paid","Over: 50000.0 - 0.19","GF61865001","Sodexo Motivation Solutions UK Ltd","Less than: 50000.0 - 0.19","GF61865001","Sodexo Motivation Solutions UK Ltd","Over: 50000.0 - 0.19","GF61865001","Sodexo Travel","Less than: 50000.0 - 1.19","GF61865001","Sodexo Travel","Over: 50000.0 - 1.19","GF61865001","Sports Travel &amp; Hospitality Group Ltd","Less than: 50000.0 - 0.19","GF61865001","Sports Travel &amp; Hospitality Group Ltd","Over: 50000.0 - 0.19","GF61865001","TVF Four weekly Temporary","Less than: 50000.0 - 1.19","GF61865001","TVF Four weekly Temporary","Over: 50000.0 - 1.19","GF61865001","TVF Weekly Paid","Less than: 50000.0 - 0.19","GF61865001","TVF Weekly Paid","Over: 50000.0 - 0.19"]</t>
+  </si>
+  <si>
+    <t>Table - Scheme Category with Default Investment Strategy</t>
+  </si>
+  <si>
+    <t>["Sodexo Ltd - Monthly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Ltd - Four Weekly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Ltd - AE Monthly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Ltd - AE Weekly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","TVF Weekly Paid","L&amp;G PMC Multi-Asset 3","100","0.13%","TVF Four weekly Temporary","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Global Services Ltd","L&amp;G PMC Multi-Asset 3","100","0.13%","Sports Travel &amp; Hospitality Group Ltd","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Motivation Solutions UK Ltd","L&amp;G PMC Multi-Asset 3","100","0.13%","Sodexo Travel","L&amp;G PMC Multi-Asset 3","100","0.13%"]</t>
+  </si>
+  <si>
+    <t>Scheme Category Description Filter</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Age Band Filter</t>
+  </si>
+  <si>
+    <t>Filter is displayed</t>
+  </si>
+  <si>
+    <t>Company Name Filter</t>
+  </si>
+  <si>
+    <t>Gender Filter</t>
+  </si>
+  <si>
+    <t>Gone Away Indicator Filter</t>
+  </si>
+  <si>
+    <t>Group Scheme Type Filter</t>
+  </si>
+  <si>
+    <t>Member Status Filter</t>
+  </si>
+  <si>
+    <t>National Insurance No Filter</t>
+  </si>
+  <si>
+    <t>Scheme ID Filter</t>
+  </si>
+  <si>
+    <t>Year/Month Filter</t>
+  </si>
+  <si>
+    <t>Individual values of Table - Scheme Category with Target Retirement Age</t>
+  </si>
+  <si>
+    <t>Sodexo Ltd Monthly Paid - Count Of Policies</t>
+  </si>
+  <si>
+    <t>Sodexo Ltd AE Weekly Paid - Count Of Policies</t>
+  </si>
+  <si>
+    <t>Sodexo Ltd AE Monthly Paid - Count Of Policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodexo Motivation Solutions UK Ltd               </t>
+  </si>
+  <si>
+    <t>Sodexo Global Services Ltd</t>
+  </si>
+  <si>
+    <t>TVF Weekly Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports Travel &amp; Hospitality Group Ltd                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodexo Ltd - Four Weekly Paid                               </t>
+  </si>
+  <si>
+    <t>Sodexo Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TVF Four weekly Temporary                                   </t>
+  </si>
+  <si>
+    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>["GF71965001","Ex Stakeholder &amp; SIPP Members","Less than: 50000.0 - 0.2","GF71965001","Ex Stakeholder &amp; SIPP Members","Over: 50000.0 - 0.2","GF71965001","Income Drawdown Category","Less than: 50000.0 - 0.2","GF71965001","Income Drawdown Category","Over: 50000.0 - 0.2","GF71965001","New Members","Less than: 50000.0 - 0.2","GF71965001","New Members","Over: 50000.0 - 0.2"]</t>
+  </si>
+  <si>
+    <t>["Ex Stakeholder &amp; SIPP Members","L&amp;G PMC 2015 - 2020 Target Date Fund 3","100","0.15%","New Members","L&amp;G PMC 2015 - 2020 Target Date Fund 3","100","0.15%","Income Drawdown Category","L&amp;G PMC 2015 - 2020 Target Date Fund 3","100","0.15%"]</t>
+  </si>
+  <si>
+    <t>New Members</t>
+  </si>
+  <si>
+    <t>Ex stakeholders &amp; SIPP Members</t>
+  </si>
+  <si>
+    <t>Drawdown category</t>
+  </si>
+  <si>
+    <t>THE TESCO RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
     <t>Category selected retirement age heading</t>
   </si>
   <si>
+    <t>8,873</t>
+  </si>
+  <si>
+    <t>Category selected retirement age data</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>["14,594","11,696","3,486","1,560","1,552","0"]</t>
+  </si>
+  <si>
+    <t>["TOTAL CALLS RECEIVED","32,888"]</t>
+  </si>
+  <si>
+    <t>RBS GROUP RETIREMENT SAVINGS PLAN (GIB)</t>
+  </si>
+  <si>
+    <t>SERCO</t>
+  </si>
+  <si>
+    <t>RBS GROUP RETIREMENT SAVINGS PLAN</t>
+  </si>
+  <si>
+    <t>1,884</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>["5,232","1,040","921","724","464","0"]</t>
+  </si>
+  <si>
+    <t>["TOTAL CALLS RECEIVED","8,381"]</t>
+  </si>
+  <si>
+    <t>SIEMENS HEALTHINEERS PENSION PLAN</t>
+  </si>
+  <si>
     <t>["Scheme Category Description","Selected Retirement Age","Count of Policies"]</t>
   </si>
   <si>
-    <t>Category selected retirement age data</t>
-  </si>
-  <si>
-    <t>["Main Plan Salaried","65","845","Main Plan Salaried DB----DC","65","191","Main Plan Deferred","65","81","DB/DC Deferred Members Main Plan","65","70","Main Weekly Paid DB/DC","65","69","Main Weekly Paid","65","57","DB AVC Deferred Member","65","5","DB AVC Member","65","3"]</t>
-  </si>
-  <si>
-    <t>["Main Plan Salaried","65","845","Main Plan Salaried DB/DC","65","191","Main Plan Deferred","65","81","DB/DC Deferred Members Main Plan","65","70","Main Weekly Paid DB/DC","65","69","Main Weekly Paid","65","57","DB AVC Deferred Member","65","5","DB AVC Member","65","3"]</t>
-  </si>
-  <si>
-    <t>YOUR M &amp; S PENSION SAVING PLAN</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>THE TESCO RETIREMENT SAVINGS PLAN</t>
-  </si>
-  <si>
-    <t>8,873</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>["14,594","11,696","3,486","1,560","1,552","0"]</t>
-  </si>
-  <si>
-    <t>["TOTAL CALLS RECEIVED","32,888"]</t>
-  </si>
-  <si>
-    <t>RBS GROUP RETIREMENT SAVINGS PLAN (GIB)</t>
-  </si>
-  <si>
-    <t>SERCO</t>
-  </si>
-  <si>
-    <t>RBS GROUP RETIREMENT SAVINGS PLAN</t>
-  </si>
-  <si>
-    <t>1,884</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>["5,232","1,040","921","724","464","0"]</t>
-  </si>
-  <si>
-    <t>["TOTAL CALLS RECEIVED","8,381"]</t>
-  </si>
-  <si>
-    <t>SIEMENS HEALTHINEERS PENSION PLAN</t>
-  </si>
-  <si>
-    <t>SAINSBURY'S RETIREMENT SAVINGS PLAN</t>
-  </si>
-  <si>
-    <t>Tolerance</t>
-  </si>
-  <si>
-    <t>["New Members","65","204,554","Ex Stakeholder &amp; SIPP Members","65","26,641","Income Drawdown Category","65","6"]</t>
-  </si>
-  <si>
-    <t>New Members</t>
-  </si>
-  <si>
-    <t>Ex stakeholders &amp; SIPP Members</t>
-  </si>
-  <si>
-    <t>Drawdown category</t>
+    <t>["New Members","65","205,341","Ex Stakeholder &amp; SIPP Members","65","26,613","Income Drawdown Category","65","6"]</t>
+  </si>
+  <si>
+    <t>["New Members","65","205,206","Ex Stakeholder &amp; SIPP Members","65","26,583","Income Drawdown Category","65","6"]</t>
   </si>
   <si>
     <t>SAINSBURY'S SIPP</t>
@@ -229,47 +313,20 @@
     <t>ALLIANCE HEALTHCARE AND BOOTS RETIREMENT SAVINGS PLAN</t>
   </si>
   <si>
-    <t>GF61865001 - YOUR SODEXO RETIREMENT PLAN</t>
-  </si>
-  <si>
-    <t>["Sodexo Ltd - Monthly Paid","65","17,244","Sodexo Ltd - AE Weekly Paid","65","5,527","Sodexo Ltd - AE Monthly Paid","65","358","Sodexo Motivation Solutions UK Ltd","65","221","Sodexo Global Services Ltd","65","83","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","20","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0"]</t>
-  </si>
-  <si>
-    <t>Sodexo Ltd Monthly Paid - Count Of Policies</t>
-  </si>
-  <si>
-    <t>Sodexo Ltd AE Weekly Paid - Count Of Policies</t>
-  </si>
-  <si>
-    <t>Sodexo Ltd AE Monthly Paid - Count Of Policies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sodexo Motivation Solutions UK Ltd               </t>
-  </si>
-  <si>
-    <t>Sodexo Global Services Ltd</t>
-  </si>
-  <si>
-    <t>TVF Weekly Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sports Travel &amp; Hospitality Group Ltd                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sodexo Ltd - Four Weekly Paid                               </t>
-  </si>
-  <si>
-    <t>Sodexo Travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TVF Four weekly Temporary                                   </t>
+    <t>["Sodexo Ltd - Monthly Paid","65","17,229","Sodexo Ltd - AE Weekly Paid","65","4,910","Sodexo Ltd - AE Monthly Paid","65","358","Sodexo Motivation Solutions UK Ltd","65","221","Sodexo Global Services Ltd","65","83","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","20","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0"]</t>
+  </si>
+  <si>
+    <t>["Sodexo Ltd - Monthly Paid","65","17,230","Sodexo Ltd - AE Weekly Paid","65","4,858","Sodexo Ltd - AE Monthly Paid","65","359","Sodexo Motivation Solutions UK Ltd","65","221","Sodexo Global Services Ltd","65","83","TVF Weekly Paid","65","21","Sports Travel &amp; Hospitality Group Ltd","65","20","Sodexo Ltd - Four Weekly Paid","65","9","Sodexo Travel","65","0"]</t>
+  </si>
+  <si>
+    <t>["New Members","65","208,975","Ex Stakeholder &amp; SIPP Members","65","26,283","Income Drawdown Category","65","6"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,8 +336,21 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,12 +368,42 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -315,9 +415,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -339,37 +467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -385,15 +487,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,53 +538,146 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1179,108 +1374,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="127.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f>IF(B2=B3,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f>IF(B4=C4,"PASS","FAIL")</f>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f>IF(B3=B4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7">
+        <v>17494</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f t="shared" ref="E17:E26" si="0">IF(AND((B17+(B17*D17))&gt;=C17,(B17-(B17*D17))&lt;=C17),"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4005</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="24">
+        <v>342</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="24">
+        <v>216</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="24">
+        <v>82</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="24">
+        <v>21</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="24">
+        <v>18</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="24">
+        <v>9</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="24">
+        <v>0</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="24">
+        <v>0</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="cellIs" dxfId="66" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E14">
+    <cfRule type="cellIs" dxfId="65" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E14">
+    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E26">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E26">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1299,73 +1789,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1401,73 +1891,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1503,73 +1993,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1605,73 +2095,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1707,73 +2197,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1809,73 +2299,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1911,73 +2401,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2013,71 +2503,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2113,73 +2603,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2215,76 +2705,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="10" t="str">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="16" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2307,99 +2797,290 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f>IF(B2=B3,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f>IF(B3=B4,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
+      <c r="B5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6" t="e">
+        <f t="shared" ref="E5" si="0">IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="28">
+        <v>208975</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f t="shared" ref="E17:E19" si="1">IF(AND((B17+(B17*D17))&gt;=C17,(B17-(B17*D17))&lt;=C17),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="28">
+        <v>26283</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>FAIL</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="31">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="str">
-        <f>IF(B4=C4,"PASS","FAIL")</f>
+      <c r="C19" s="31"/>
+      <c r="D19" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>FAIL</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D8">
+  <conditionalFormatting sqref="E17:E19">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E19">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E14">
     <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
+  <conditionalFormatting sqref="E5:E14">
     <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
@@ -2424,73 +3105,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2526,77 +3207,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2632,73 +3313,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2734,73 +3415,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2836,73 +3517,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2938,73 +3619,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3041,73 +3722,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3143,73 +3824,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="23" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3272,81 +3953,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3449,9 +4130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3462,216 +4141,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="17">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="4" t="str">
         <f>IF(B2=B3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="17">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="4" t="str">
         <f>IF(B3=B4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="19">
-        <v>17244</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="11">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="18">
+        <v>17229</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="8">
         <v>0.05</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E5" s="9" t="str">
         <f t="shared" ref="E5:E14" si="0">IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="19">
-        <v>5527</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="11">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="18">
+        <v>4910</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="8">
         <v>0.05</v>
       </c>
-      <c r="E6" s="5" t="str">
+      <c r="E6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
         <v>358</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>0.05</v>
       </c>
-      <c r="E7" s="5" t="str">
+      <c r="E7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="18">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
         <v>221</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>0.05</v>
       </c>
-      <c r="E8" s="5" t="str">
+      <c r="E8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="18">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
         <v>83</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>0.05</v>
       </c>
-      <c r="E9" s="5" t="str">
+      <c r="E9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="18">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
         <v>21</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>0.05</v>
       </c>
-      <c r="E10" s="5" t="str">
+      <c r="E10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
         <v>20</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>0.05</v>
       </c>
-      <c r="E11" s="5" t="str">
+      <c r="E11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>0.05</v>
       </c>
-      <c r="E12" s="5" t="str">
+      <c r="E12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>0.05</v>
       </c>
-      <c r="E13" s="5" t="str">
+      <c r="E13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="18">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>0.05</v>
       </c>
-      <c r="E14" s="5" t="str">
+      <c r="E14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
@@ -3734,73 +4410,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3837,73 +4513,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3939,81 +4615,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4049,73 +4725,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4140,9 +4816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4152,101 +4826,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="11">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="4" t="str">
         <f>IF(B2=B3,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="11">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="4" t="str">
         <f>IF(B3=B4,"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="19">
-        <v>204554</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="11">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="18">
+        <v>205341</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="8">
         <v>0.05</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E5" s="9" t="str">
         <f t="shared" ref="E5:E7" si="0">IF(AND((B5+(B5*D5))&gt;=C5,(B5-(B5*D5))&lt;=C5),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="19">
-        <v>26641</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="11">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="18">
+        <v>26613</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="8">
         <v>0.05</v>
       </c>
-      <c r="E6" s="5" t="str">
+      <c r="E6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>0.05</v>
       </c>
-      <c r="E7" s="5" t="str">
+      <c r="E7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
@@ -4296,73 +4975,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="str">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="str">
         <f>IF(B3=C3,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="str">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16" t="str">
         <f>IF(B4=C4,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="10" t="str">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="16" t="str">
         <f t="shared" ref="D5:D6" si="0">IF(B5=C5,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="str">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
